--- a/Manual testing/Homework2/Traceability_Matrix_Oleksandr_Stepaniuk.xlsx
+++ b/Manual testing/Homework2/Traceability_Matrix_Oleksandr_Stepaniuk.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A1E4952-989C-4F97-BDDD-B94B00612936}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{869E07AC-EFE5-4569-99B9-193C00FEB19C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Checklist Criteria of Req-ments" sheetId="3" r:id="rId1"/>
     <sheet name="Matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Checklist Test Cases" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$C$6:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Matrix!$F$7:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Checklist Test Cases'!$C$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Matrix!$G$7:$I$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>Tester: Oleksandr Stepaniuk</t>
   </si>
@@ -189,9 +190,6 @@
     <t>R7TS1</t>
   </si>
   <si>
-    <t>Water dispencer should have 2 faucets (taps) for supplying the water</t>
-  </si>
-  <si>
     <t>R9TS1</t>
   </si>
   <si>
@@ -234,9 +232,6 @@
     <t>Water dispenser should heat water to the temperature 90°C (hot) in 9 minutes</t>
   </si>
   <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -255,9 +250,6 @@
     <t>R2TS2TC1</t>
   </si>
   <si>
-    <t>WATER DISPENSER CHECKLIST</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -310,9 +302,6 @@
   </si>
   <si>
     <t>Validate that dispenser heats water to the temperature 60°C in 4 minutes</t>
-  </si>
-  <si>
-    <t>Validate that dispencer has 2 faucets (for hot and cold water)</t>
   </si>
   <si>
     <t>Check the presence of the child-safety guard  on the hot water faucet</t>
@@ -550,12 +539,111 @@
       <t xml:space="preserve"> - Defect X of Test Case X of Test Scenario X of Requirement X </t>
     </r>
   </si>
+  <si>
+    <t>Анализ Граничных Значений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Причина / Следствие </t>
+  </si>
+  <si>
+    <t>Причина / Следствие</t>
+  </si>
+  <si>
+    <t>Предугадывание ошибки</t>
+  </si>
+  <si>
+    <t>Эквивалентное Разделение, Анализ Граничных Значений</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Measurability</t>
+  </si>
+  <si>
+    <t>Testability</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Правильность</t>
+  </si>
+  <si>
+    <t>Полнота</t>
+  </si>
+  <si>
+    <t>Понятность</t>
+  </si>
+  <si>
+    <t>Измеримость</t>
+  </si>
+  <si>
+    <t>Тестируемость</t>
+  </si>
+  <si>
+    <t>Непротиворечивость</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Подключать можно только к стандартной заземленной розетке, возможность подключить к другой резетке через трехзубчатую вилку должна отсутствовать</t>
+  </si>
+  <si>
+    <t>Должен сохранять работоспособность до температуры 0°C включительно</t>
+  </si>
+  <si>
+    <t>Необходима рабочая "защита от детей" на гарячем кране, которая бы предотвращала возможность случайно открыть кран с гарячей водой</t>
+  </si>
+  <si>
+    <t>Должна быть возможность установить кулер ровно на ровном полу (установить выше/ниже одну из сторон, используются по две пары ножек) и на неровном полу (когда каждая ножка может быть установлена на определенную высоту)</t>
+  </si>
+  <si>
+    <t>Должен поставлять воду температурой от 5-7 до 10 градусов для т.н. холодной воды; от 50 до 60 градусов для теплой воды и от 81 до 90 градусов для горячей воды</t>
+  </si>
+  <si>
+    <t>Нагрев воды до температуры 90 градусов (горячей) воды должен составлять 9 минут приблизительно</t>
+  </si>
+  <si>
+    <t>Охлаждение воды до 5-7 градусов должно занимать 40 минут</t>
+  </si>
+  <si>
+    <t>Нагрев воды до температуры 60 градусов (теплой) - 4 минуты</t>
+  </si>
+  <si>
+    <t>Должна быть возможность подачи воды комнатной температуры, если отключено охлаждение воды и включена одна из программ нагрева</t>
+  </si>
+  <si>
+    <t>TEST CASES CHECKLIST</t>
+  </si>
+  <si>
+    <t>Testing object name: Water Dispenser Avanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRITERIA of REQUIREMENTS CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимо два крана - для горячей и холодной воды, а не один </t>
+  </si>
+  <si>
+    <t>Water dispenser should have 2 faucets (taps) for supplying the water (for hot and cold water)</t>
+  </si>
+  <si>
+    <t>Validate that dispenser has 2 faucets (for hot and cold water)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,8 +734,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +779,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,46 +1013,238 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,123 +1256,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,11 +1536,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C863B01-31D8-4047-9473-F1A844F95E42}">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="85"/>
+      <c r="G6" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="88"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G7:I38" xr:uid="{0BD7471A-CAC9-48D6-8D5C-5F1E75B8417D}"/>
+  <mergeCells count="30">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B18:B32"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="K18:K32"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,7 +2820,7 @@
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1374,10 +2829,10 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="95"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1385,35 +2840,35 @@
         <v>0</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="A4" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32" t="s">
-        <v>78</v>
+      <c r="A5" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="96" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -1421,389 +2876,389 @@
         <v>21</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="B12" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="B14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="B15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="B17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="B19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+        <v>57</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="9"/>
     </row>
   </sheetData>
@@ -1819,688 +3274,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:I38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="F7:H38" xr:uid="{0BD7471A-CAC9-48D6-8D5C-5F1E75B8417D}"/>
-  <mergeCells count="29">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B18:B32"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E5:I5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>